--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipa-my.sharepoint.com/personal/giulia_filicicchia_you_unipa_it/Documents/3° anno/1° semestre/Ingegneria e sicurezza del software/Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{29DD951C-528A-4776-8463-3B1196B446A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FEA3D3A-82F0-4F3A-BA5C-1F2A92DC04D9}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="8_{29DD951C-528A-4776-8463-3B1196B446A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A59C984-6220-45C1-8B41-9A1969A07786}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C5A1575A-BDFF-4E49-8C7D-0AF3FDC18191}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5A1575A-BDFF-4E49-8C7D-0AF3FDC18191}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="PositionModel" sheetId="3" r:id="rId2"/>
-    <sheet name="MovementController" sheetId="2" r:id="rId3"/>
+    <sheet name="PartyTest" sheetId="5" r:id="rId1"/>
+    <sheet name="PositionTest" sheetId="3" r:id="rId2"/>
+    <sheet name="PlayerTest" sheetId="4" r:id="rId3"/>
+    <sheet name="MovementControllerTest" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="176">
   <si>
     <t>T1</t>
   </si>
@@ -46,128 +47,533 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Modulo</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Funzionalità</t>
-  </si>
-  <si>
-    <t>Priorità</t>
-  </si>
-  <si>
-    <t>Stato</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Gestione stats ed inventario</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>In sviluppo</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>T2</t>
   </si>
   <si>
-    <t>Coordinate e posizione su mappa</t>
-  </si>
-  <si>
     <t>MovementController</t>
   </si>
   <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>Spostamento personaggio</t>
-  </si>
-  <si>
-    <t>ID Test</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
-    <t>Output atteso</t>
-  </si>
-  <si>
-    <t>Movimento in avanti</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Y aumenta di 1</t>
-  </si>
-  <si>
-    <t>Eseguito</t>
-  </si>
-  <si>
-    <t>Movimento indietro</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Y diminuisce di 1</t>
-  </si>
-  <si>
     <t>T3</t>
   </si>
   <si>
-    <t>Movimento a sinistra</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>X diminuisce di 1</t>
-  </si>
-  <si>
     <t>T4</t>
   </si>
   <si>
-    <t>Movimento a destra</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>X aumenta di 1</t>
-  </si>
-  <si>
-    <t>Posizione iniziale</t>
-  </si>
-  <si>
-    <t>P(6,10)</t>
-  </si>
-  <si>
-    <t>Impostare posizione iniziale</t>
-  </si>
-  <si>
-    <t>Posizione iniziale impostata</t>
-  </si>
-  <si>
     <t>getX()</t>
+  </si>
+  <si>
+    <t>Metodo</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Azione</t>
+  </si>
+  <si>
+    <t>Istanziare Player</t>
+  </si>
+  <si>
+    <t>getJob</t>
+  </si>
+  <si>
+    <t>Recupero Job</t>
+  </si>
+  <si>
+    <t>Player creato con Job.ROGUE</t>
+  </si>
+  <si>
+    <t>Chiamare getJob()</t>
+  </si>
+  <si>
+    <t>Ritorna Job.ROGUE</t>
+  </si>
+  <si>
+    <t>setPosition</t>
+  </si>
+  <si>
+    <t>Spostamento player</t>
+  </si>
+  <si>
+    <t>Nuova Posizione(200,50)</t>
+  </si>
+  <si>
+    <t>position aggiornata, player.x=200, player.y=50</t>
+  </si>
+  <si>
+    <t>subscribeToFollowed()</t>
+  </si>
+  <si>
+    <t>Player segue un altro</t>
+  </si>
+  <si>
+    <t>player2--&gt;mainPlayer</t>
+  </si>
+  <si>
+    <t>player2.subscribeToFollowed(mainPlayer)</t>
+  </si>
+  <si>
+    <t>mainPlayer.follower=player2</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>unsubscribeFromFollowed()</t>
+  </si>
+  <si>
+    <t>Interruzione follow</t>
+  </si>
+  <si>
+    <t>unsubscribe</t>
+  </si>
+  <si>
+    <t>mainPlayer.follower=null</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>notifyFollower()</t>
+  </si>
+  <si>
+    <t>Movimento leader</t>
+  </si>
+  <si>
+    <t>Catena di 4 player</t>
+  </si>
+  <si>
+    <t>mainPlayer.notifyFollower()</t>
+  </si>
+  <si>
+    <t>Tutti assumono la stessa posizione del leader</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>Generazione player</t>
+  </si>
+  <si>
+    <t>Nessuno</t>
+  </si>
+  <si>
+    <t>Chiamata metodo</t>
+  </si>
+  <si>
+    <t>Lista size=4, follow a catena corretta</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>createListPlayers()</t>
+  </si>
+  <si>
+    <t>getSprite()</t>
+  </si>
+  <si>
+    <t>Player con sprite</t>
+  </si>
+  <si>
+    <t>Costruttore esteso</t>
+  </si>
+  <si>
+    <t>ImageView non null</t>
+  </si>
+  <si>
+    <t>Player(Job,Position,col,row)</t>
+  </si>
+  <si>
+    <t>Creazione player con sprite</t>
+  </si>
+  <si>
+    <t>Job=WARRIOR,Position(150,0),col=1,row=2</t>
+  </si>
+  <si>
+    <t>Job=WARRIOR,position=(150,0), sprite!=null</t>
+  </si>
+  <si>
+    <t>Risultato Atteso</t>
+  </si>
+  <si>
+    <t>Position(x,y)</t>
+  </si>
+  <si>
+    <t>Creazione posizione</t>
+  </si>
+  <si>
+    <t>x=10,y=20</t>
+  </si>
+  <si>
+    <t>new Position(10,20)</t>
+  </si>
+  <si>
+    <t>getX()=10,getY()=20</t>
+  </si>
+  <si>
+    <t>Lettura coordinata X</t>
+  </si>
+  <si>
+    <t>Position(4,8)</t>
+  </si>
+  <si>
+    <t>ritorna 4</t>
+  </si>
+  <si>
+    <t>getY()</t>
+  </si>
+  <si>
+    <t>Lettura coordinata Y</t>
+  </si>
+  <si>
+    <t>ritorna 8</t>
+  </si>
+  <si>
+    <t>add()</t>
+  </si>
+  <si>
+    <t>Somma negativa</t>
+  </si>
+  <si>
+    <t>pos.add(-3,-4)</t>
+  </si>
+  <si>
+    <t>Position(4,8), add(-3,-4)</t>
+  </si>
+  <si>
+    <t>Nuova posizione (1,4)</t>
+  </si>
+  <si>
+    <t>clamp()</t>
+  </si>
+  <si>
+    <t>Superamento limiti</t>
+  </si>
+  <si>
+    <t>Position(20,14),limit(10,10)</t>
+  </si>
+  <si>
+    <t>clamp(10,10)</t>
+  </si>
+  <si>
+    <t>Position(10,10)</t>
+  </si>
+  <si>
+    <t>Immutabilità</t>
+  </si>
+  <si>
+    <t>pos2=pos.add(1,1)</t>
+  </si>
+  <si>
+    <t>pos=(10,10), pos2=(11,11)</t>
+  </si>
+  <si>
+    <t>Dentro i limiti</t>
+  </si>
+  <si>
+    <t>Position(5,5), limit(10,10)</t>
+  </si>
+  <si>
+    <t>Position(5,5)</t>
+  </si>
+  <si>
+    <t>Valori negativi</t>
+  </si>
+  <si>
+    <t>Position(-5,-2), limit(10,10)</t>
+  </si>
+  <si>
+    <t>Position(0,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inInside() </t>
+  </si>
+  <si>
+    <t>Punto sul bordo</t>
+  </si>
+  <si>
+    <t>Position(10,10), limit(10,10)</t>
+  </si>
+  <si>
+    <t>inInside(limit)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Punto fuori bordo</t>
+  </si>
+  <si>
+    <t>Position(12,5),limit(10,10)</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>Conversione stringa</t>
+  </si>
+  <si>
+    <t>Position(3,4)</t>
+  </si>
+  <si>
+    <t>"Position(3,4)"</t>
+  </si>
+  <si>
+    <t>Party(List&lt;Player&gt;)</t>
+  </si>
+  <si>
+    <t>Creazione party</t>
+  </si>
+  <si>
+    <t>Lista 4 player</t>
+  </si>
+  <si>
+    <t>new Party(lista)</t>
+  </si>
+  <si>
+    <t>members size=4</t>
+  </si>
+  <si>
+    <t>getMembers()</t>
+  </si>
+  <si>
+    <t>Recupero membri</t>
+  </si>
+  <si>
+    <t>Party valido</t>
+  </si>
+  <si>
+    <t>Ritorna la lista originale</t>
+  </si>
+  <si>
+    <t>getMainPlayer()</t>
+  </si>
+  <si>
+    <t>Recupero Leader</t>
+  </si>
+  <si>
+    <t>Party con 4 player</t>
+  </si>
+  <si>
+    <t>Ritorna members[0]</t>
+  </si>
+  <si>
+    <t>updateFollowPosition()</t>
+  </si>
+  <si>
+    <t>Movimento party (movimento leader)</t>
+  </si>
+  <si>
+    <t>nextPosition(200,50)</t>
+  </si>
+  <si>
+    <t>Leader cambia posizione</t>
+  </si>
+  <si>
+    <t>Followers seguono leader</t>
+  </si>
+  <si>
+    <t>Tutti hanno la stessa posizione</t>
+  </si>
+  <si>
+    <t>Party singolo</t>
+  </si>
+  <si>
+    <t>Lista con 1 player</t>
+  </si>
+  <si>
+    <t>Si muove solo il leader</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Lista vuota</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>IndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>Party vuoto</t>
+  </si>
+  <si>
+    <t>Creazione controller</t>
+  </si>
+  <si>
+    <t>Party valido, Scene(800x600),speed=32</t>
+  </si>
+  <si>
+    <t>new MovementController</t>
+  </si>
+  <si>
+    <t>Controller creato senza errori</t>
+  </si>
+  <si>
+    <t>Costruttore</t>
+  </si>
+  <si>
+    <t>Calcolo limiti posizione</t>
+  </si>
+  <si>
+    <t>Scene(800x600), speed=32</t>
+  </si>
+  <si>
+    <t>posLimit coerente con dimensioni scene</t>
+  </si>
+  <si>
+    <t>update()</t>
+  </si>
+  <si>
+    <t>Aggiornamento frame</t>
+  </si>
+  <si>
+    <t>Nessun input</t>
+  </si>
+  <si>
+    <t>movePlayer() viene eseguito</t>
+  </si>
+  <si>
+    <t>movePlayer()</t>
+  </si>
+  <si>
+    <t>Movimento UP</t>
+  </si>
+  <si>
+    <t>Key=W</t>
+  </si>
+  <si>
+    <t>y diminuisce di speed</t>
+  </si>
+  <si>
+    <t>Movimento RIGHT</t>
+  </si>
+  <si>
+    <t>Key=D</t>
+  </si>
+  <si>
+    <t>x aumenta di speed</t>
+  </si>
+  <si>
+    <t>Nessun tasto</t>
+  </si>
+  <si>
+    <t>activeKeys vuota</t>
+  </si>
+  <si>
+    <t>Posizione invariata</t>
+  </si>
+  <si>
+    <t>Direzione opposta</t>
+  </si>
+  <si>
+    <t>prev=W, key=S</t>
+  </si>
+  <si>
+    <t>Nessun movimento</t>
+  </si>
+  <si>
+    <t>Cambio direzione</t>
+  </si>
+  <si>
+    <t>prev=W, key=D</t>
+  </si>
+  <si>
+    <t>Movimento vestro destra</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>Superamento bordo</t>
+  </si>
+  <si>
+    <t>Posizione max, key=D</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>Movimento valido</t>
+  </si>
+  <si>
+    <t>Posizione interna</t>
+  </si>
+  <si>
+    <t>party.updateFollowPosition() chiamato</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>Movimento party</t>
+  </si>
+  <si>
+    <t>Lista Player</t>
+  </si>
+  <si>
+    <t>Leader e follower aggiornati</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>Più tasti premuti</t>
+  </si>
+  <si>
+    <t>W,A,S in coda</t>
+  </si>
+  <si>
+    <t>Elaborato solo il primo tasto</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>prevDirection=null, key=W</t>
+  </si>
+  <si>
+    <t>Primo input</t>
+  </si>
+  <si>
+    <t>Movimento consentito</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>speed=0</t>
+  </si>
+  <si>
+    <t>key=0</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>Scene nulla</t>
+  </si>
+  <si>
+    <t>scene=null</t>
+  </si>
+  <si>
+    <t>NullPointerException</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +581,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,13 +617,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutrale" xfId="1" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,39 +964,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BD271D-0E85-48A8-84D1-3D01909D83E3}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35400F29-09C1-4308-BA0B-71DD5C94186E}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -575,124 +1005,624 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FB2765-FCFC-41A8-8777-28375534F16F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C4191E-2A78-4707-924F-805E6AC0DF21}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -700,9 +1630,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC088249-D306-499A-B716-BF709674AF2A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -711,28 +1641,31 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,79 +1673,299 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipa-my.sharepoint.com/personal/giulia_filicicchia_you_unipa_it/Documents/3° anno/1° semestre/Ingegneria e sicurezza del software/Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipa-my.sharepoint.com/personal/giulia_filicicchia_you_unipa_it/Documents/3° anno/1° semestre/Ingegneria e sicurezza del software/Progetto/iss-team2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="8_{29DD951C-528A-4776-8463-3B1196B446A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75CAC5C7-C11D-41FE-83D5-4ADD8F8E4008}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="8_{29DD951C-528A-4776-8463-3B1196B446A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C250FB-F1F6-43B9-806E-812507A9EAC9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5A1575A-BDFF-4E49-8C7D-0AF3FDC18191}"/>
   </bookViews>
@@ -606,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,19 +997,19 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1240,6 +1240,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1251,16 +1252,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1514,16 +1515,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1716,17 +1717,17 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>183</v>
       </c>
